--- a/Study 3/Shocks/GCAM/NDC_LTT - 2075.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2075.xlsx
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.1191199534733047</v>
+        <v>0.1191199534733048</v>
       </c>
     </row>
     <row r="5">
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.09146542574261399</v>
+        <v>0.09146542574261397</v>
       </c>
     </row>
     <row r="7">
@@ -11642,7 +11642,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.02283699016948252</v>
+        <v>0.02283699016948253</v>
       </c>
     </row>
     <row r="9">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.006199109935475971</v>
+        <v>0.00619910993547597</v>
       </c>
     </row>
     <row r="11">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.06096604182601266</v>
+        <v>0.06096604182601267</v>
       </c>
     </row>
     <row r="21">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.4917238456813181</v>
+        <v>0.491723845681318</v>
       </c>
     </row>
     <row r="23">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.1887154298786336</v>
+        <v>0.1887154298786337</v>
       </c>
     </row>
     <row r="25">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.0001524732946720483</v>
+        <v>0.0001524732946720482</v>
       </c>
     </row>
     <row r="27">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.2150909604747495</v>
+        <v>0.2150909604747496</v>
       </c>
     </row>
     <row r="37">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.2333096694023142</v>
+        <v>0.2333096694023143</v>
       </c>
     </row>
     <row r="41">
